--- a/food_pairing_df.xlsx
+++ b/food_pairing_df.xlsx
@@ -620,6 +620,36 @@
       <c r="H2" t="s">
         <v>42</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
@@ -637,11 +667,44 @@
       <c r="E3" t="s">
         <v>42</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3">
         <v>18</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -716,11 +779,44 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>42</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -748,6 +844,36 @@
       <c r="H6" t="s">
         <v>42</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
@@ -777,6 +903,33 @@
       <c r="I7" t="s">
         <v>44</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
@@ -806,6 +959,33 @@
       <c r="I8" t="s">
         <v>45</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
@@ -832,6 +1012,36 @@
       <c r="H9" t="s">
         <v>42</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
@@ -861,6 +1071,33 @@
       <c r="I10" t="s">
         <v>46</v>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
@@ -887,6 +1124,36 @@
       <c r="H11" t="s">
         <v>42</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
@@ -916,6 +1183,33 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
@@ -933,11 +1227,44 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="G13">
         <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>42</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -965,6 +1292,36 @@
       <c r="H14" t="s">
         <v>42</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
@@ -991,6 +1348,36 @@
       <c r="H15" t="s">
         <v>42</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
@@ -1020,8 +1407,35 @@
       <c r="I16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1046,8 +1460,38 @@
       <c r="H17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1075,8 +1519,35 @@
       <c r="I18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1101,8 +1572,38 @@
       <c r="H19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1130,8 +1631,35 @@
       <c r="I20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1156,8 +1684,38 @@
       <c r="H21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1182,8 +1740,38 @@
       <c r="H22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1211,8 +1799,35 @@
       <c r="I23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1240,8 +1855,35 @@
       <c r="I24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1269,8 +1911,35 @@
       <c r="I25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1297,6 +1966,33 @@
       </c>
       <c r="I26" t="s">
         <v>54</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
